--- a/ͼ��excel.xlsx
+++ b/ͼ��excel.xlsx
@@ -247,24 +247,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="97364992"/>
-        <c:axId val="97374976"/>
+        <c:axId val="88517632"/>
+        <c:axId val="88527616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97364992"/>
+        <c:axId val="88517632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97374976"/>
+        <c:crossAx val="88527616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97374976"/>
+        <c:axId val="88527616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -272,7 +272,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97364992"/>
+        <c:crossAx val="88517632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -285,7 +285,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -338,13 +338,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>200</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>150</c:v>
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -359,7 +359,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>运营</c:v>
+                  <c:v>市场</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -388,13 +388,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>80</c:v>
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>600</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -409,7 +409,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>市场</c:v>
+                  <c:v>运营</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -438,37 +438,37 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="97408512"/>
-        <c:axId val="97410048"/>
+        <c:axId val="88819200"/>
+        <c:axId val="88820736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="97408512"/>
+        <c:axId val="88819200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97410048"/>
+        <c:crossAx val="88820736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="97410048"/>
+        <c:axId val="88820736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -476,7 +476,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97408512"/>
+        <c:crossAx val="88819200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -489,7 +489,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -848,7 +848,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -906,10 +906,10 @@
         <v>6</v>
       </c>
       <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
         <v>7</v>
-      </c>
-      <c r="D34" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -917,13 +917,13 @@
         <v>3</v>
       </c>
       <c r="B35">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="C35">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="D35">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -931,13 +931,13 @@
         <v>4</v>
       </c>
       <c r="B36">
+        <v>300</v>
+      </c>
+      <c r="C36">
+        <v>250</v>
+      </c>
+      <c r="D36">
         <v>100</v>
-      </c>
-      <c r="C36">
-        <v>50</v>
-      </c>
-      <c r="D36">
-        <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -945,13 +945,13 @@
         <v>5</v>
       </c>
       <c r="B37">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C37">
-        <v>80</v>
+        <v>600</v>
       </c>
       <c r="D37">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/ͼ��excel.xlsx
+++ b/ͼ��excel.xlsx
@@ -16,29 +16,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
-    <t>初期短期</t>
+    <t>市场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>融资三期</t>
+    <t>种子融资</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>融资二期</t>
+    <t>二期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>初期短期</t>
+    <t>三期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>融资二期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>融资三期</t>
+    <t>二期</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -53,11 +49,19 @@
     <t>市场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>研发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -97,8 +101,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -113,50 +123,57 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="zh-CN"/>
-  <c:style val="3"/>
   <c:chart>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="percentStacked"/>
+        <c:grouping val="clustered"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>研发</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>研发</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>初期短期</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>融资二期</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>融资三期</c:v>
+              <c:f>Sheet1!$B$5:$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>种子融资</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>二期</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>三期</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$C$2</c:f>
+              <c:f>Sheet1!$B$6:$D$6</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.35</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -166,39 +183,47 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>运维</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>运营</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>初期短期</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>融资二期</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>融资三期</c:v>
+              <c:f>Sheet1!$B$5:$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>种子融资</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>二期</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>三期</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$C$3</c:f>
+              <c:f>Sheet1!$B$7:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -208,84 +233,100 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>市场</c:v>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>市场</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$1:$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>初期短期</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>融资二期</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>融资三期</c:v>
+              <c:f>Sheet1!$B$5:$D$5</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>种子融资</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>二期</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>三期</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$C$4</c:f>
+              <c:f>Sheet1!$B$8:$D$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>75</c:v>
+                <c:formatCode>0.00_);[Red]\(0.00\)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:overlap val="100"/>
-        <c:axId val="88517632"/>
-        <c:axId val="88527616"/>
+        <c:axId val="113513216"/>
+        <c:axId val="113514752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88517632"/>
+        <c:axId val="113513216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88527616"/>
+        <c:crossAx val="113514752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88527616"/>
+        <c:axId val="113514752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88517632"/>
+        <c:crossAx val="113513216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.88059864391951004"/>
+          <c:y val="0.18923884514435702"/>
+          <c:w val="0.10273468941382329"/>
+          <c:h val="0.47337379702537186"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -299,13 +340,13 @@
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+        <c:grouping val="stacked"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$34</c:f>
+              <c:f>Sheet1!$A$41</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -316,35 +357,35 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$35:$A$37</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>初期短期</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>融资二期</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>融资三期</c:v>
+              <c:f>Sheet1!$B$40:$D$40</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>种子融资</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>二期</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>三期</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$35:$B$37</c:f>
+              <c:f>Sheet1!$B$41:$D$41</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>300</c:v>
+                <c:formatCode>"¥"#,##0.00;[Red]"¥"\-#,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4800000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -355,46 +396,46 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$34</c:f>
+              <c:f>Sheet1!$A$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>市场</c:v>
+                  <c:v>运营</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$35:$A$37</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>初期短期</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>融资二期</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>融资三期</c:v>
+              <c:f>Sheet1!$B$40:$D$40</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>种子融资</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>二期</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>三期</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$35:$C$37</c:f>
+              <c:f>Sheet1!$B$42:$D$42</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>250</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>600</c:v>
+                <c:formatCode>"¥"#,##0.00;[Red]"¥"\-#,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -405,91 +446,100 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$34</c:f>
+              <c:f>Sheet1!$A$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>运营</c:v>
+                  <c:v>市场</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$35:$A$37</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>初期短期</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>融资二期</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>融资三期</c:v>
+              <c:f>Sheet1!$B$40:$D$40</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>种子融资</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>二期</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>三期</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$35:$D$37</c:f>
+              <c:f>Sheet1!$B$43:$D$43</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
+                <c:formatCode>"¥"#,##0.00;[Red]"¥"\-#,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1600000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="88819200"/>
-        <c:axId val="88820736"/>
+        <c:overlap val="100"/>
+        <c:axId val="113548288"/>
+        <c:axId val="113566464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="88819200"/>
+        <c:axId val="113548288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88820736"/>
+        <c:crossAx val="113566464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88820736"/>
+        <c:axId val="113566464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="&quot;¥&quot;#,##0.00_);\(&quot;¥&quot;#,##0.00\)" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88819200"/>
+        <c:crossAx val="113548288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.90022019430543554"/>
+          <c:y val="0.26705170532309791"/>
+          <c:w val="8.5852017801979388E-2"/>
+          <c:h val="0.38839297354844921"/>
+        </c:manualLayout>
+      </c:layout>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -499,20 +549,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1952625</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="图表 2"/>
+        <xdr:cNvPr id="6" name="图表 5"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -530,19 +580,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>428624</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="图表 3"/>
+        <xdr:cNvPr id="9" name="图表 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -845,113 +895,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A5:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="21.25" customWidth="1"/>
-    <col min="2" max="3" width="26.75" customWidth="1"/>
+    <col min="1" max="1" width="8.25" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4000000</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4800000</v>
+      </c>
+      <c r="D41" s="1">
+        <v>5000000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1600000</v>
+      </c>
+      <c r="D42" s="1">
+        <v>7000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
-        <v>80</v>
-      </c>
-      <c r="B2">
-        <v>40</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>50</v>
-      </c>
-      <c r="C4">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
-        <v>3</v>
-      </c>
-      <c r="B35">
-        <v>250</v>
-      </c>
-      <c r="C35">
-        <v>150</v>
-      </c>
-      <c r="D35">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36">
-        <v>300</v>
-      </c>
-      <c r="C36">
-        <v>250</v>
-      </c>
-      <c r="D36">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37">
-        <v>300</v>
-      </c>
-      <c r="C37">
-        <v>600</v>
-      </c>
-      <c r="D37">
-        <v>100</v>
+      <c r="B43" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1600000</v>
+      </c>
+      <c r="D43" s="1">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="B44" s="1">
+        <v>6000000</v>
+      </c>
+      <c r="C44" s="1">
+        <v>8000000</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1400000</v>
       </c>
     </row>
   </sheetData>
@@ -966,7 +1053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
@@ -980,7 +1067,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>

--- a/ͼ��excel.xlsx
+++ b/ͼ��excel.xlsx
@@ -170,10 +170,10 @@
                   <c:v>0.8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.35</c:v>
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -220,10 +220,10 @@
                   <c:v>0.1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -279,24 +279,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="113513216"/>
-        <c:axId val="113514752"/>
+        <c:axId val="158178688"/>
+        <c:axId val="160507008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113513216"/>
+        <c:axId val="158178688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113514752"/>
+        <c:crossAx val="160507008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113514752"/>
+        <c:axId val="160507008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -304,7 +304,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="0.0%" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113513216"/>
+        <c:crossAx val="158178688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -316,9 +316,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.88059864391951004"/>
-          <c:y val="0.18923884514435702"/>
-          <c:w val="0.10273468941382329"/>
-          <c:h val="0.47337379702537186"/>
+          <c:y val="0.18923884514435707"/>
+          <c:w val="0.1027346894138233"/>
+          <c:h val="0.47337379702537191"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -326,7 +326,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -492,24 +492,24 @@
           </c:val>
         </c:ser>
         <c:overlap val="100"/>
-        <c:axId val="113548288"/>
-        <c:axId val="113566464"/>
+        <c:axId val="169090432"/>
+        <c:axId val="169174144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="113548288"/>
+        <c:axId val="169090432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113566464"/>
+        <c:crossAx val="169174144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="113566464"/>
+        <c:axId val="169174144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -517,7 +517,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="&quot;¥&quot;#,##0.00_);\(&quot;¥&quot;#,##0.00\)" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="113548288"/>
+        <c:crossAx val="169090432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -531,7 +531,7 @@
           <c:x val="0.90022019430543554"/>
           <c:y val="0.26705170532309791"/>
           <c:w val="8.5852017801979388E-2"/>
-          <c:h val="0.38839297354844921"/>
+          <c:h val="0.38839297354844937"/>
         </c:manualLayout>
       </c:layout>
     </c:legend>
@@ -539,7 +539,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -897,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A5:D44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -928,10 +928,10 @@
         <v>0.8</v>
       </c>
       <c r="C6" s="2">
-        <v>0.6</v>
+        <v>0.3</v>
       </c>
       <c r="D6" s="2">
-        <v>0.35</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -942,10 +942,10 @@
         <v>0.1</v>
       </c>
       <c r="C7" s="2">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="D7" s="2">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="8" spans="1:4">
